--- a/音效列表.xlsx
+++ b/音效列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>音效（怎么找到）</t>
   </si>
@@ -25,10 +25,79 @@
     <t>状态</t>
   </si>
   <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>卡比兽睡觉时</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>small yawl</t>
+  </si>
+  <si>
+    <t>kabi-interact-1-shout</t>
+  </si>
+  <si>
+    <t>kabi-interact-2-shout</t>
+  </si>
+  <si>
+    <t>big yawl</t>
+  </si>
+  <si>
+    <t>kabi-interact-3-shout</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>kabi-interact-3-shout 结束后</t>
+  </si>
+  <si>
+    <t>flute</t>
+  </si>
+  <si>
+    <t>使用笛子时</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>放置植物时</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>子弹击中时</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>僵尸死亡时</t>
+  </si>
+  <si>
+    <t>pvzwin</t>
+  </si>
+  <si>
+    <t>pvz胜利时</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pvz失败时</t>
+  </si>
+  <si>
+    <t>wizarddie</t>
+  </si>
+  <si>
+    <t>巫师落地时</t>
   </si>
 </sst>
 </file>
@@ -200,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +296,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,12 +487,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,16 +628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,10 +649,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,55 +667,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,38 +724,41 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,10 +768,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,16 +1108,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="92.125" customWidth="1"/>
+    <col min="2" max="2" width="92.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:3">
@@ -1026,212 +1131,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="3" t="s">
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="3" t="s">
-        <v>3</v>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
-        <v>3</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3" t="s">
-        <v>3</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="3" t="s">
-        <v>3</v>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3" t="s">
-        <v>3</v>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3" t="s">
-        <v>3</v>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="3" t="s">
-        <v>3</v>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="3" t="s">
-        <v>3</v>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
